--- a/專項/列女傳人物/列女傳人物.xlsx
+++ b/專項/列女傳人物/列女傳人物.xlsx
@@ -1449,8 +1449,8 @@
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3094,8 +3094,11 @@
       <c r="C109" t="s">
         <v>220</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="3" t="s">
         <v>272</v>
+      </c>
+      <c r="F109">
+        <v>1621</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -3306,5 +3309,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>